--- a/data/pca/factorExposure/factorExposure_2012-01-13.xlsx
+++ b/data/pca/factorExposure/factorExposure_2012-01-13.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="110">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,18 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +701,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:H104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:8">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +717,48 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="B2">
-        <v>-0.01555266121326133</v>
+        <v>0.01544267180593396</v>
       </c>
       <c r="C2">
-        <v>0.03061512843308484</v>
+        <v>-0.02573557601138028</v>
       </c>
       <c r="D2">
-        <v>0.01662190799936088</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.01681379417704323</v>
+      </c>
+      <c r="E2">
+        <v>0.01604755208997324</v>
+      </c>
+      <c r="F2">
+        <v>-0.02344663557991165</v>
+      </c>
+      <c r="G2">
+        <v>-0.001592258254600126</v>
+      </c>
+      <c r="H2">
+        <v>0.04550953754536952</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,24 +769,48 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>0</v>
+      </c>
+      <c r="H3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="B4">
-        <v>-0.07392394126710142</v>
+        <v>0.08874477539085956</v>
       </c>
       <c r="C4">
-        <v>0.05239383530088914</v>
+        <v>-0.0389036899730828</v>
       </c>
       <c r="D4">
-        <v>0.08439669350651532</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.06823044193261309</v>
+      </c>
+      <c r="E4">
+        <v>0.007040306292715713</v>
+      </c>
+      <c r="F4">
+        <v>-0.03735965088863952</v>
+      </c>
+      <c r="G4">
+        <v>-0.004498590234010436</v>
+      </c>
+      <c r="H4">
+        <v>-0.03554385824794304</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -761,164 +821,308 @@
       <c r="D5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>0</v>
+      </c>
+      <c r="F5">
+        <v>0</v>
+      </c>
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="B6">
-        <v>-0.1109649088597307</v>
+        <v>0.1229743818675648</v>
       </c>
       <c r="C6">
-        <v>0.05082064083236911</v>
+        <v>-0.03606596637045392</v>
       </c>
       <c r="D6">
-        <v>0.005530494682290272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>-0.01129292696035574</v>
+      </c>
+      <c r="E6">
+        <v>-0.02155774161397808</v>
+      </c>
+      <c r="F6">
+        <v>-0.05380976152607041</v>
+      </c>
+      <c r="G6">
+        <v>-0.0317039117469184</v>
+      </c>
+      <c r="H6">
+        <v>0.1187209867638073</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="B7">
-        <v>-0.05372050206528661</v>
+        <v>0.06335718762707404</v>
       </c>
       <c r="C7">
-        <v>0.0253383939627252</v>
+        <v>-0.01349982423598992</v>
       </c>
       <c r="D7">
-        <v>0.03896766524312457</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05034519072507275</v>
+      </c>
+      <c r="E7">
+        <v>0.03382221060138766</v>
+      </c>
+      <c r="F7">
+        <v>-0.04315035258688873</v>
+      </c>
+      <c r="G7">
+        <v>0.03246806756077254</v>
+      </c>
+      <c r="H7">
+        <v>-0.01680113337452488</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="B8">
-        <v>-0.0416125962562048</v>
+        <v>0.04299092475582115</v>
       </c>
       <c r="C8">
-        <v>0.01414824343217867</v>
+        <v>-0.009222228917277713</v>
       </c>
       <c r="D8">
-        <v>0.06155952291557412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.02490066337349344</v>
+      </c>
+      <c r="E8">
+        <v>0.01763029085550515</v>
+      </c>
+      <c r="F8">
+        <v>-0.06195217258882272</v>
+      </c>
+      <c r="G8">
+        <v>-0.05986167742584144</v>
+      </c>
+      <c r="H8">
+        <v>0.016233578870298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="B9">
-        <v>-0.06900648857054767</v>
+        <v>0.07999687501217968</v>
       </c>
       <c r="C9">
-        <v>0.03852088146074769</v>
+        <v>-0.02522937989214635</v>
       </c>
       <c r="D9">
-        <v>0.07499358526342374</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.06250342613674165</v>
+      </c>
+      <c r="E9">
+        <v>0.02693569300662892</v>
+      </c>
+      <c r="F9">
+        <v>-0.02869635377969706</v>
+      </c>
+      <c r="G9">
+        <v>-0.0126918692610357</v>
+      </c>
+      <c r="H9">
+        <v>-0.04565834576651111</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="B10">
-        <v>-0.03185764060321376</v>
+        <v>0.04116916979593944</v>
       </c>
       <c r="C10">
-        <v>0.02698011337348906</v>
+        <v>-0.05123077180561077</v>
       </c>
       <c r="D10">
-        <v>-0.1720474267935069</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.17309419645232</v>
+      </c>
+      <c r="E10">
+        <v>0.04049574224322609</v>
+      </c>
+      <c r="F10">
+        <v>-0.05456510185018229</v>
+      </c>
+      <c r="G10">
+        <v>0.02126201412672411</v>
+      </c>
+      <c r="H10">
+        <v>0.03783016745348439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="B11">
-        <v>-0.07222815618132379</v>
+        <v>0.076866958623217</v>
       </c>
       <c r="C11">
-        <v>0.04157415553554033</v>
+        <v>-0.02199169098663931</v>
       </c>
       <c r="D11">
-        <v>0.05749833705889593</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.06413046502326139</v>
+      </c>
+      <c r="E11">
+        <v>-0.008439122040293474</v>
+      </c>
+      <c r="F11">
+        <v>-0.03256377497863713</v>
+      </c>
+      <c r="G11">
+        <v>-0.01950847029484083</v>
+      </c>
+      <c r="H11">
+        <v>-0.07372261169118562</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="B12">
-        <v>-0.06092076670210413</v>
+        <v>0.06934647369480815</v>
       </c>
       <c r="C12">
-        <v>0.05048660898137041</v>
+        <v>-0.03406767083791382</v>
       </c>
       <c r="D12">
-        <v>0.04411879756404898</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.04792413064983882</v>
+      </c>
+      <c r="E12">
+        <v>0.01023235935205483</v>
+      </c>
+      <c r="F12">
+        <v>-0.02224785087841096</v>
+      </c>
+      <c r="G12">
+        <v>-0.01182942148529302</v>
+      </c>
+      <c r="H12">
+        <v>-0.03171986782261859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="B13">
-        <v>-0.06500373890981601</v>
+        <v>0.06718361411347884</v>
       </c>
       <c r="C13">
-        <v>0.03460819484786464</v>
+        <v>-0.02004238884203686</v>
       </c>
       <c r="D13">
-        <v>0.0483915103773201</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.03902651849248465</v>
+      </c>
+      <c r="E13">
+        <v>0.01481419264043485</v>
+      </c>
+      <c r="F13">
+        <v>-0.02333247150920626</v>
+      </c>
+      <c r="G13">
+        <v>0.002869403225193714</v>
+      </c>
+      <c r="H13">
+        <v>-0.05709445545759735</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="B14">
-        <v>-0.03346990606708018</v>
+        <v>0.03948517999564557</v>
       </c>
       <c r="C14">
-        <v>0.03062521462047945</v>
+        <v>-0.02641454648140738</v>
       </c>
       <c r="D14">
-        <v>0.004367655011817521</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.01405450543825112</v>
+      </c>
+      <c r="E14">
+        <v>0.03260002139728622</v>
+      </c>
+      <c r="F14">
+        <v>-0.01541053136021802</v>
+      </c>
+      <c r="G14">
+        <v>-0.01710499692392526</v>
+      </c>
+      <c r="H14">
+        <v>-0.05818809258891009</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="B15">
-        <v>-0.03993792209555493</v>
+        <v>0.03961918799980197</v>
       </c>
       <c r="C15">
-        <v>0.008218386872058949</v>
+        <v>-0.001862766620975654</v>
       </c>
       <c r="D15">
-        <v>0.0223269522467341</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.00879503490092756</v>
+      </c>
+      <c r="E15">
+        <v>0.03481271671992588</v>
+      </c>
+      <c r="F15">
+        <v>0.0001075745456438469</v>
+      </c>
+      <c r="G15">
+        <v>-0.02839629162635144</v>
+      </c>
+      <c r="H15">
+        <v>-0.03081715673605106</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="B16">
-        <v>-0.06104569090676731</v>
+        <v>0.07155540271890545</v>
       </c>
       <c r="C16">
-        <v>0.03920900317008513</v>
+        <v>-0.02459149116340422</v>
       </c>
       <c r="D16">
-        <v>0.04934355625766108</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.06140912672259764</v>
+      </c>
+      <c r="E16">
+        <v>0.002955990226428978</v>
+      </c>
+      <c r="F16">
+        <v>-0.03121661415284023</v>
+      </c>
+      <c r="G16">
+        <v>-0.009860139280711177</v>
+      </c>
+      <c r="H16">
+        <v>-0.04931615081544923</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>22</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -929,10 +1133,22 @@
       <c r="D17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -943,10 +1159,22 @@
       <c r="D18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:4">
+      <c r="E18">
+        <v>0</v>
+      </c>
+      <c r="F18">
+        <v>0</v>
+      </c>
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1185,204 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="B20">
-        <v>-0.06364656316399163</v>
+        <v>0.06287808416378712</v>
       </c>
       <c r="C20">
-        <v>0.02376350296787385</v>
+        <v>-0.007608903088663143</v>
       </c>
       <c r="D20">
-        <v>0.04829880663678987</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.03885418551521265</v>
+      </c>
+      <c r="E20">
+        <v>0.01561361090959705</v>
+      </c>
+      <c r="F20">
+        <v>-0.02672287621781301</v>
+      </c>
+      <c r="G20">
+        <v>-0.01620534799296807</v>
+      </c>
+      <c r="H20">
+        <v>-0.03834348664934445</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B21">
-        <v>-0.0269375710508177</v>
+        <v>0.02722625268947923</v>
       </c>
       <c r="C21">
-        <v>-0.00207034148997998</v>
+        <v>0.00917989684151849</v>
       </c>
       <c r="D21">
-        <v>0.02141618835640722</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.02296806685110683</v>
+      </c>
+      <c r="E21">
+        <v>0.04415802776429602</v>
+      </c>
+      <c r="F21">
+        <v>0.01163642008122464</v>
+      </c>
+      <c r="G21">
+        <v>-0.005403785469066361</v>
+      </c>
+      <c r="H21">
+        <v>0.04774999217578058</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="B22">
-        <v>-0.07951677140584715</v>
+        <v>0.06988296320682974</v>
       </c>
       <c r="C22">
-        <v>0.05881151506182121</v>
+        <v>-0.03303010714048777</v>
       </c>
       <c r="D22">
-        <v>0.1475953797317213</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.1013693710567494</v>
+      </c>
+      <c r="E22">
+        <v>0.6032221083354025</v>
+      </c>
+      <c r="F22">
+        <v>0.1156013842579118</v>
+      </c>
+      <c r="G22">
+        <v>0.1085659986518751</v>
+      </c>
+      <c r="H22">
+        <v>0.1536835402292744</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B23">
-        <v>-0.08049095766992136</v>
+        <v>0.07100876623007138</v>
       </c>
       <c r="C23">
-        <v>0.05753478906484296</v>
+        <v>-0.0317810984704825</v>
       </c>
       <c r="D23">
-        <v>0.1489395164778861</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.1019694701278471</v>
+      </c>
+      <c r="E23">
+        <v>0.6038143866246244</v>
+      </c>
+      <c r="F23">
+        <v>0.1149387780684409</v>
+      </c>
+      <c r="G23">
+        <v>0.1076423227417281</v>
+      </c>
+      <c r="H23">
+        <v>0.1500803764599184</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B24">
-        <v>-0.07537880221712516</v>
+        <v>0.08010322491277307</v>
       </c>
       <c r="C24">
-        <v>0.05046352023676748</v>
+        <v>-0.02999301900637222</v>
       </c>
       <c r="D24">
-        <v>0.06051335155827691</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.06313063420720644</v>
+      </c>
+      <c r="E24">
+        <v>0.01214834380035839</v>
+      </c>
+      <c r="F24">
+        <v>-0.03818080948502689</v>
+      </c>
+      <c r="G24">
+        <v>-0.02346176780080476</v>
+      </c>
+      <c r="H24">
+        <v>-0.03758296356934653</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="B25">
-        <v>-0.07453307110260445</v>
+        <v>0.07899112084539867</v>
       </c>
       <c r="C25">
-        <v>0.05322307236889258</v>
+        <v>-0.03427151867471387</v>
       </c>
       <c r="D25">
-        <v>0.06500439808921889</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.05170441341346213</v>
+      </c>
+      <c r="E25">
+        <v>0.0181409755301821</v>
+      </c>
+      <c r="F25">
+        <v>-0.03193795356529366</v>
+      </c>
+      <c r="G25">
+        <v>-0.03336127155505245</v>
+      </c>
+      <c r="H25">
+        <v>-0.04441057224320061</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B26">
-        <v>-0.04451720387004308</v>
+        <v>0.04642593246815813</v>
       </c>
       <c r="C26">
-        <v>0.007967903026659976</v>
+        <v>0.0003150196026922589</v>
       </c>
       <c r="D26">
-        <v>0.01393504322783935</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.01812496502687824</v>
+      </c>
+      <c r="E26">
+        <v>0.03984243043131903</v>
+      </c>
+      <c r="F26">
+        <v>-0.03674190282673922</v>
+      </c>
+      <c r="G26">
+        <v>0.001991154629590597</v>
+      </c>
+      <c r="H26">
+        <v>-0.04891479166980807</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,136 +1393,256 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27">
+        <v>0</v>
+      </c>
+      <c r="H27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B28">
-        <v>-0.05339763295404782</v>
+        <v>0.06930193774659628</v>
       </c>
       <c r="C28">
-        <v>0.07069534595690219</v>
+        <v>-0.1048827826171365</v>
       </c>
       <c r="D28">
-        <v>-0.3021097097997919</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2997914852505353</v>
+      </c>
+      <c r="E28">
+        <v>0.03547520680606265</v>
+      </c>
+      <c r="F28">
+        <v>-0.06324640112247761</v>
+      </c>
+      <c r="G28">
+        <v>-0.03098985612872554</v>
+      </c>
+      <c r="H28">
+        <v>0.03750424956582909</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="B29">
-        <v>-0.04336746863656644</v>
+        <v>0.04778054354835936</v>
       </c>
       <c r="C29">
-        <v>0.02879747818410273</v>
+        <v>-0.02358759801823846</v>
       </c>
       <c r="D29">
-        <v>0.008588053212020538</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.0110476803892136</v>
+      </c>
+      <c r="E29">
+        <v>0.06362716840038418</v>
+      </c>
+      <c r="F29">
+        <v>-0.01372022129233397</v>
+      </c>
+      <c r="G29">
+        <v>-0.003039685059047457</v>
+      </c>
+      <c r="H29">
+        <v>-0.07841645341202585</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="B30">
-        <v>-0.1296224102512931</v>
+        <v>0.1282736540300731</v>
       </c>
       <c r="C30">
-        <v>0.08688340480611557</v>
+        <v>-0.05578516667291324</v>
       </c>
       <c r="D30">
-        <v>0.1071203920471789</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.0776580831737915</v>
+      </c>
+      <c r="E30">
+        <v>0.07906584363789756</v>
+      </c>
+      <c r="F30">
+        <v>-0.01503613561132129</v>
+      </c>
+      <c r="G30">
+        <v>-0.08587572320272345</v>
+      </c>
+      <c r="H30">
+        <v>0.0722899095783705</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="B31">
-        <v>-0.04572146407954578</v>
+        <v>0.04858167254823369</v>
       </c>
       <c r="C31">
-        <v>0.02202699909128901</v>
+        <v>-0.0115377178719414</v>
       </c>
       <c r="D31">
-        <v>0.0254369567809819</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.03194063686286681</v>
+      </c>
+      <c r="E31">
+        <v>0.02342716069249789</v>
+      </c>
+      <c r="F31">
+        <v>-0.006077248629056479</v>
+      </c>
+      <c r="G31">
+        <v>0.01708306553067564</v>
+      </c>
+      <c r="H31">
+        <v>-0.06939162345966619</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="B32">
-        <v>-0.03789079608701745</v>
+        <v>0.03902104595386317</v>
       </c>
       <c r="C32">
-        <v>0.02422220702363028</v>
+        <v>-0.02090063859056169</v>
       </c>
       <c r="D32">
-        <v>0.02471492125439341</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.01117439518594913</v>
+      </c>
+      <c r="E32">
+        <v>0.05683569816056647</v>
+      </c>
+      <c r="F32">
+        <v>0.007154519256461366</v>
+      </c>
+      <c r="G32">
+        <v>-0.04870657524209312</v>
+      </c>
+      <c r="H32">
+        <v>-0.05931262568934741</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B33">
-        <v>-0.08493370083664036</v>
+        <v>0.09424697940465926</v>
       </c>
       <c r="C33">
-        <v>0.03839287048486197</v>
+        <v>-0.02095173719005348</v>
       </c>
       <c r="D33">
-        <v>0.05528960537391944</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.04794855989556013</v>
+      </c>
+      <c r="E33">
+        <v>0.01743352691413687</v>
+      </c>
+      <c r="F33">
+        <v>-0.009843276557140993</v>
+      </c>
+      <c r="G33">
+        <v>-0.006288967104659774</v>
+      </c>
+      <c r="H33">
+        <v>-0.05806999187002877</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="B34">
-        <v>-0.05888222510567787</v>
+        <v>0.06378592800359968</v>
       </c>
       <c r="C34">
-        <v>0.02488950393761637</v>
+        <v>-0.009303866737582997</v>
       </c>
       <c r="D34">
-        <v>0.05201969501700381</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.04936564950713249</v>
+      </c>
+      <c r="E34">
+        <v>0.007485044424186005</v>
+      </c>
+      <c r="F34">
+        <v>-0.02180176866331583</v>
+      </c>
+      <c r="G34">
+        <v>-0.01095473802974106</v>
+      </c>
+      <c r="H34">
+        <v>-0.05380233295667334</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>-0.03626812588914387</v>
+        <v>0.03837397188543623</v>
       </c>
       <c r="C35">
-        <v>0.007194838382188555</v>
+        <v>-0.001628321107123685</v>
       </c>
       <c r="D35">
-        <v>0.01843186398069982</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.01463189004980598</v>
+      </c>
+      <c r="E35">
+        <v>0.02040920869746003</v>
+      </c>
+      <c r="F35">
+        <v>0.01797299621244002</v>
+      </c>
+      <c r="G35">
+        <v>0.005955486379613495</v>
+      </c>
+      <c r="H35">
+        <v>-0.01985687023903854</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="B36">
-        <v>-0.02454170341406773</v>
+        <v>0.02885214010869028</v>
       </c>
       <c r="C36">
-        <v>0.01785126980895312</v>
+        <v>-0.0137920991759887</v>
       </c>
       <c r="D36">
-        <v>0.02235218044299862</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.01645837161342543</v>
+      </c>
+      <c r="E36">
+        <v>0.02985328568548818</v>
+      </c>
+      <c r="F36">
+        <v>-0.02450293874330876</v>
+      </c>
+      <c r="G36">
+        <v>0.002414316823010743</v>
+      </c>
+      <c r="H36">
+        <v>-0.04038699252332262</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1209,66 +1653,126 @@
       <c r="D37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:4">
+      <c r="E37">
+        <v>0</v>
+      </c>
+      <c r="F37">
+        <v>0</v>
+      </c>
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="B38">
-        <v>-0.04344934356909028</v>
+        <v>0.04373776285812155</v>
       </c>
       <c r="C38">
-        <v>0.002311788726617474</v>
+        <v>0.00583429453713183</v>
       </c>
       <c r="D38">
-        <v>0.02050258186210053</v>
-      </c>
-    </row>
-    <row r="39" spans="1:4">
+        <v>-0.02188920870347682</v>
+      </c>
+      <c r="E38">
+        <v>0.05028673398907024</v>
+      </c>
+      <c r="F38">
+        <v>0.008413203285188998</v>
+      </c>
+      <c r="G38">
+        <v>-0.00766123479290759</v>
+      </c>
+      <c r="H38">
+        <v>-0.03346957797630654</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="B39">
-        <v>-0.09208343536547241</v>
+        <v>0.1002639031017451</v>
       </c>
       <c r="C39">
-        <v>0.067316683269804</v>
+        <v>-0.04568135958071105</v>
       </c>
       <c r="D39">
-        <v>0.05628624216633411</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.06673271796024438</v>
+      </c>
+      <c r="E39">
+        <v>0.00651675100307124</v>
+      </c>
+      <c r="F39">
+        <v>0.0009507534736335814</v>
+      </c>
+      <c r="G39">
+        <v>-0.04640664574356613</v>
+      </c>
+      <c r="H39">
+        <v>-0.03018756442899725</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="B40">
-        <v>-0.07971000417757081</v>
+        <v>0.06343081805756745</v>
       </c>
       <c r="C40">
-        <v>0.03326043363611682</v>
+        <v>-0.004623201214686379</v>
       </c>
       <c r="D40">
-        <v>0.00486187734450162</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.02978051977487512</v>
+      </c>
+      <c r="E40">
+        <v>0.03680681074316706</v>
+      </c>
+      <c r="F40">
+        <v>0.04605603283137581</v>
+      </c>
+      <c r="G40">
+        <v>-0.03457022909971822</v>
+      </c>
+      <c r="H40">
+        <v>0.09276868953331863</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="B41">
-        <v>-0.04324161133819981</v>
+        <v>0.0447724120554648</v>
       </c>
       <c r="C41">
-        <v>0.004841555398785196</v>
+        <v>0.005358731151655542</v>
       </c>
       <c r="D41">
-        <v>0.03749823351196641</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.0328695165221627</v>
+      </c>
+      <c r="E41">
+        <v>0.00283330897146676</v>
+      </c>
+      <c r="F41">
+        <v>0.0149599175679961</v>
+      </c>
+      <c r="G41">
+        <v>-0.01470613997534356</v>
+      </c>
+      <c r="H41">
+        <v>-0.0345547711429456</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1783,74 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+      <c r="G42">
+        <v>0</v>
+      </c>
+      <c r="H42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="B43">
-        <v>-0.05241770274580623</v>
+        <v>0.05983829439587001</v>
       </c>
       <c r="C43">
-        <v>0.02557963746702905</v>
+        <v>-0.01606752199812931</v>
       </c>
       <c r="D43">
-        <v>0.01577850983320989</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.02818044380840218</v>
+      </c>
+      <c r="E43">
+        <v>0.02237019113903427</v>
+      </c>
+      <c r="F43">
+        <v>-0.01374825500051278</v>
+      </c>
+      <c r="G43">
+        <v>0.01503620586721538</v>
+      </c>
+      <c r="H43">
+        <v>-0.06700721446377345</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="B44">
-        <v>-0.09723346687468301</v>
+        <v>0.09530617710982199</v>
       </c>
       <c r="C44">
-        <v>0.08450375085915911</v>
+        <v>-0.05619952675958453</v>
       </c>
       <c r="D44">
-        <v>0.07814163857052275</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.06822852065726152</v>
+      </c>
+      <c r="E44">
+        <v>0.07846692348499383</v>
+      </c>
+      <c r="F44">
+        <v>-0.07682266692715575</v>
+      </c>
+      <c r="G44">
+        <v>-0.02676944300805342</v>
+      </c>
+      <c r="H44">
+        <v>-0.02299332680261104</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,94 +1861,178 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="B46">
-        <v>-0.02658460921022416</v>
+        <v>0.03518326008481967</v>
       </c>
       <c r="C46">
-        <v>0.0147907340585271</v>
+        <v>-0.01043957687481447</v>
       </c>
       <c r="D46">
-        <v>0.03011273564187258</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.03634813841446841</v>
+      </c>
+      <c r="E46">
+        <v>0.03404787783610391</v>
+      </c>
+      <c r="F46">
+        <v>-0.0152925509854842</v>
+      </c>
+      <c r="G46">
+        <v>0.001153891556691122</v>
+      </c>
+      <c r="H46">
+        <v>-0.03511597672866419</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="B47">
-        <v>-0.03323157167963901</v>
+        <v>0.03980782996522505</v>
       </c>
       <c r="C47">
-        <v>0.0225995605852931</v>
+        <v>-0.01816023541093622</v>
       </c>
       <c r="D47">
-        <v>0.0007105499299113018</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.006562234918031848</v>
+      </c>
+      <c r="E47">
+        <v>0.04698793539397538</v>
+      </c>
+      <c r="F47">
+        <v>0.004771645760660121</v>
+      </c>
+      <c r="G47">
+        <v>0.03937154624831277</v>
+      </c>
+      <c r="H47">
+        <v>-0.03986054815696308</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="B48">
-        <v>-0.03491009852788447</v>
+        <v>0.03835334391784237</v>
       </c>
       <c r="C48">
-        <v>0.01740806516767864</v>
+        <v>-0.009599294132054355</v>
       </c>
       <c r="D48">
-        <v>0.03339112514610332</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.02030129061018298</v>
+      </c>
+      <c r="E48">
+        <v>0.03900314356012614</v>
+      </c>
+      <c r="F48">
+        <v>-0.008838934425769683</v>
+      </c>
+      <c r="G48">
+        <v>-0.01695148443593159</v>
+      </c>
+      <c r="H48">
+        <v>-0.03319138737381394</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="B49">
-        <v>-0.1628810730438625</v>
+        <v>0.1919600473698087</v>
       </c>
       <c r="C49">
-        <v>0.04853452962640149</v>
+        <v>-0.02777900935939169</v>
       </c>
       <c r="D49">
-        <v>0.001143287309077127</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>-0.03527329640580994</v>
+      </c>
+      <c r="E49">
+        <v>-0.1738214264278686</v>
+      </c>
+      <c r="F49">
+        <v>-0.05777680931909433</v>
+      </c>
+      <c r="G49">
+        <v>0.08950434709518594</v>
+      </c>
+      <c r="H49">
+        <v>0.2247637180272359</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
       <c r="B50">
-        <v>-0.04050203714905666</v>
+        <v>0.04503284964060908</v>
       </c>
       <c r="C50">
-        <v>0.01899439744050747</v>
+        <v>-0.01067275650606115</v>
       </c>
       <c r="D50">
-        <v>0.04570448854511196</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.0375278793133242</v>
+      </c>
+      <c r="E50">
+        <v>0.04141369141330102</v>
+      </c>
+      <c r="F50">
+        <v>-0.009148692876149295</v>
+      </c>
+      <c r="G50">
+        <v>0.01600998700660578</v>
+      </c>
+      <c r="H50">
+        <v>-0.07451794702436419</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="B51">
-        <v>-0.02910388169553788</v>
+        <v>0.03312386164815005</v>
       </c>
       <c r="C51">
-        <v>0.01009355835079371</v>
+        <v>-0.00530100272297478</v>
       </c>
       <c r="D51">
-        <v>0.003518224732702338</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
+        <v>-0.004914416021576626</v>
+      </c>
+      <c r="E51">
+        <v>0.007776523793814258</v>
+      </c>
+      <c r="F51">
+        <v>-0.01082804053772222</v>
+      </c>
+      <c r="G51">
+        <v>0.00219168548530317</v>
+      </c>
+      <c r="H51">
+        <v>0.0044402601917588</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1419,66 +2043,126 @@
       <c r="D52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:4">
+      <c r="E52">
+        <v>0</v>
+      </c>
+      <c r="F52">
+        <v>0</v>
+      </c>
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="B53">
-        <v>-0.1567405148903356</v>
+        <v>0.1617516264086184</v>
       </c>
       <c r="C53">
-        <v>0.07169466750642442</v>
+        <v>-0.04542303565323621</v>
       </c>
       <c r="D53">
-        <v>0.0007609150776489845</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.02406742111249692</v>
+      </c>
+      <c r="E53">
+        <v>-0.0326482010865248</v>
+      </c>
+      <c r="F53">
+        <v>-0.002024662671290565</v>
+      </c>
+      <c r="G53">
+        <v>0.01377937201625284</v>
+      </c>
+      <c r="H53">
+        <v>-0.1914091918310874</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B54">
-        <v>-0.05669365713825681</v>
+        <v>0.05837892609661487</v>
       </c>
       <c r="C54">
-        <v>0.02126959800088596</v>
+        <v>-0.01199081820514815</v>
       </c>
       <c r="D54">
-        <v>0.01764497688137617</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.01323256842497065</v>
+      </c>
+      <c r="E54">
+        <v>0.05132660737888196</v>
+      </c>
+      <c r="F54">
+        <v>-0.01048084487532354</v>
+      </c>
+      <c r="G54">
+        <v>-0.0343891357225151</v>
+      </c>
+      <c r="H54">
+        <v>-0.04210314957507222</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="B55">
-        <v>-0.1005503897187709</v>
+        <v>0.1041028654112213</v>
       </c>
       <c r="C55">
-        <v>0.04854114543997031</v>
+        <v>-0.0304456343872065</v>
       </c>
       <c r="D55">
-        <v>0.02224508854043769</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.02848872633349553</v>
+      </c>
+      <c r="E55">
+        <v>0.006811824339388783</v>
+      </c>
+      <c r="F55">
+        <v>-0.01100032209664679</v>
+      </c>
+      <c r="G55">
+        <v>0.004943188592476214</v>
+      </c>
+      <c r="H55">
+        <v>-0.1547056676277207</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B56">
-        <v>-0.1521950040224457</v>
+        <v>0.1596816354473882</v>
       </c>
       <c r="C56">
-        <v>0.08227494836894453</v>
+        <v>-0.05404235940037143</v>
       </c>
       <c r="D56">
-        <v>0.01112198023377516</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>-0.03498961026698855</v>
+      </c>
+      <c r="E56">
+        <v>-0.0206425169302922</v>
+      </c>
+      <c r="F56">
+        <v>-0.02254643331706718</v>
+      </c>
+      <c r="G56">
+        <v>0.0180253380705304</v>
+      </c>
+      <c r="H56">
+        <v>-0.1975699491908037</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,542 +2173,1010 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+      <c r="G57">
+        <v>0</v>
+      </c>
+      <c r="H57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="B58">
-        <v>-0.1316769393315033</v>
+        <v>0.09904315254289746</v>
       </c>
       <c r="C58">
-        <v>-0.004891371662585197</v>
+        <v>0.04823244220746705</v>
       </c>
       <c r="D58">
-        <v>0.02342858214565346</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.03318174357704497</v>
+      </c>
+      <c r="E58">
+        <v>0.1426913373621818</v>
+      </c>
+      <c r="F58">
+        <v>-0.002764959044020885</v>
+      </c>
+      <c r="G58">
+        <v>0.05877438067500311</v>
+      </c>
+      <c r="H58">
+        <v>0.2116262981010645</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="B59">
-        <v>-0.1267611205928899</v>
+        <v>0.1459163646696096</v>
       </c>
       <c r="C59">
-        <v>0.07816899225271179</v>
+        <v>-0.1102806517627655</v>
       </c>
       <c r="D59">
-        <v>-0.3810042765925519</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.357574318502177</v>
+      </c>
+      <c r="E59">
+        <v>0.03407486482676687</v>
+      </c>
+      <c r="F59">
+        <v>-0.001726771830377921</v>
+      </c>
+      <c r="G59">
+        <v>0.02197387896937984</v>
+      </c>
+      <c r="H59">
+        <v>0.00166569883721111</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B60">
-        <v>-0.2093883054548924</v>
+        <v>0.2386038596054579</v>
       </c>
       <c r="C60">
-        <v>0.08984174949572607</v>
+        <v>-0.05985723616291828</v>
       </c>
       <c r="D60">
-        <v>0.02218417286193637</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.04567906925718973</v>
+      </c>
+      <c r="E60">
+        <v>-0.1113325615442026</v>
+      </c>
+      <c r="F60">
+        <v>-0.05650966431298426</v>
+      </c>
+      <c r="G60">
+        <v>-0.002869080313481773</v>
+      </c>
+      <c r="H60">
+        <v>0.1485562790110294</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="B61">
-        <v>-0.08266949740995805</v>
+        <v>0.08824988866946515</v>
       </c>
       <c r="C61">
-        <v>0.04776838925265047</v>
+        <v>-0.03104465276808838</v>
       </c>
       <c r="D61">
-        <v>0.03508986836205467</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.04211423641709412</v>
+      </c>
+      <c r="E61">
+        <v>0.004286105901333605</v>
+      </c>
+      <c r="F61">
+        <v>0.001248872279562184</v>
+      </c>
+      <c r="G61">
+        <v>-0.01039490496945929</v>
+      </c>
+      <c r="H61">
+        <v>-0.0583047606422989</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="B62">
-        <v>-0.1316445352770362</v>
+        <v>0.1367705420805653</v>
       </c>
       <c r="C62">
-        <v>0.05792662081049612</v>
+        <v>-0.03070594617555671</v>
       </c>
       <c r="D62">
-        <v>0.0198011511746789</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.04351834670495605</v>
+      </c>
+      <c r="E62">
+        <v>-0.0554959619328317</v>
+      </c>
+      <c r="F62">
+        <v>0.006930651587676766</v>
+      </c>
+      <c r="G62">
+        <v>-0.0238248717761548</v>
+      </c>
+      <c r="H62">
+        <v>-0.1882133590585716</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="B63">
-        <v>-0.0520702069928238</v>
+        <v>0.05230461473076435</v>
       </c>
       <c r="C63">
-        <v>0.02219358687393544</v>
+        <v>-0.0129578005395521</v>
       </c>
       <c r="D63">
-        <v>0.02573838374336367</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.01988509307555494</v>
+      </c>
+      <c r="E63">
+        <v>0.04835655864260883</v>
+      </c>
+      <c r="F63">
+        <v>0.003251811067914309</v>
+      </c>
+      <c r="G63">
+        <v>-0.02178183880942598</v>
+      </c>
+      <c r="H63">
+        <v>-0.04322528240696354</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B64">
-        <v>-0.1050107604677234</v>
+        <v>0.1096770805655099</v>
       </c>
       <c r="C64">
-        <v>0.02910262241902933</v>
+        <v>-0.01389022827567815</v>
       </c>
       <c r="D64">
-        <v>0.03588248257237522</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.02938575837978879</v>
+      </c>
+      <c r="E64">
+        <v>0.03310967663692344</v>
+      </c>
+      <c r="F64">
+        <v>-0.04371718431801793</v>
+      </c>
+      <c r="G64">
+        <v>-0.06110226394739914</v>
+      </c>
+      <c r="H64">
+        <v>-0.03428540328280241</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
       <c r="B65">
-        <v>-0.129080887875067</v>
+        <v>0.1309297831707046</v>
       </c>
       <c r="C65">
-        <v>0.05870339128896254</v>
+        <v>-0.04132750004014155</v>
       </c>
       <c r="D65">
-        <v>0.004127057913335869</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>-0.009881565017077081</v>
+      </c>
+      <c r="E65">
+        <v>4.881160014091832e-05</v>
+      </c>
+      <c r="F65">
+        <v>-0.06021070434849469</v>
+      </c>
+      <c r="G65">
+        <v>-0.05409841232793795</v>
+      </c>
+      <c r="H65">
+        <v>0.1473060704229588</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B66">
-        <v>-0.1492760514599085</v>
+        <v>0.1521733763231805</v>
       </c>
       <c r="C66">
-        <v>0.06582628799137143</v>
+        <v>-0.03284457773755205</v>
       </c>
       <c r="D66">
-        <v>0.1001155142602822</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.09986350718596521</v>
+      </c>
+      <c r="E66">
+        <v>-0.02399762764696807</v>
+      </c>
+      <c r="F66">
+        <v>-0.001971206509880047</v>
+      </c>
+      <c r="G66">
+        <v>-0.05827964949336839</v>
+      </c>
+      <c r="H66">
+        <v>-0.09045088711735405</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="B67">
-        <v>-0.07592187680153246</v>
+        <v>0.08419586095353779</v>
       </c>
       <c r="C67">
-        <v>0.008972081666093212</v>
+        <v>0.002183329822346611</v>
       </c>
       <c r="D67">
-        <v>0.02428872207349543</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.03322253175145219</v>
+      </c>
+      <c r="E67">
+        <v>0.0160709630849244</v>
+      </c>
+      <c r="F67">
+        <v>-0.01396274113468499</v>
+      </c>
+      <c r="G67">
+        <v>0.00869781118951846</v>
+      </c>
+      <c r="H67">
+        <v>-0.04136856079073295</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="B68">
-        <v>-0.06074544244185544</v>
+        <v>0.06421313469967081</v>
       </c>
       <c r="C68">
-        <v>0.05033530939443311</v>
+        <v>-0.07868378707447225</v>
       </c>
       <c r="D68">
-        <v>-0.2550666224338753</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2651237690513039</v>
+      </c>
+      <c r="E68">
+        <v>0.04295028909415738</v>
+      </c>
+      <c r="F68">
+        <v>-0.01215370603646452</v>
+      </c>
+      <c r="G68">
+        <v>0.01062141578883198</v>
+      </c>
+      <c r="H68">
+        <v>-0.009008449312715276</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="B69">
-        <v>-0.05177368392802759</v>
+        <v>0.05193247911777819</v>
       </c>
       <c r="C69">
-        <v>0.01476336594666085</v>
+        <v>-0.003095400337720601</v>
       </c>
       <c r="D69">
-        <v>0.02531110965593594</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.02033547428066631</v>
+      </c>
+      <c r="E69">
+        <v>0.0259526143859465</v>
+      </c>
+      <c r="F69">
+        <v>0.00957442333242331</v>
+      </c>
+      <c r="G69">
+        <v>0.01732735964689139</v>
+      </c>
+      <c r="H69">
+        <v>-0.05985372404226198</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="B70">
-        <v>-0.003437781976390675</v>
+        <v>0.02714531419646911</v>
       </c>
       <c r="C70">
-        <v>-0.008939307409734185</v>
+        <v>0.004029820987408664</v>
       </c>
       <c r="D70">
-        <v>-0.01079170599323805</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>0.00578040780032075</v>
+      </c>
+      <c r="E70">
+        <v>-0.02428420343161699</v>
+      </c>
+      <c r="F70">
+        <v>-0.006643445111286528</v>
+      </c>
+      <c r="G70">
+        <v>0.01774144878916831</v>
+      </c>
+      <c r="H70">
+        <v>0.01705920879004732</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="B71">
-        <v>-0.05938679378596971</v>
+        <v>0.06812937327189836</v>
       </c>
       <c r="C71">
-        <v>0.05051317860358113</v>
+        <v>-0.0864827643054433</v>
       </c>
       <c r="D71">
-        <v>-0.291231826630326</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2926341615972783</v>
+      </c>
+      <c r="E71">
+        <v>0.03856140660746232</v>
+      </c>
+      <c r="F71">
+        <v>-0.04183342195305326</v>
+      </c>
+      <c r="G71">
+        <v>0.001603305443910318</v>
+      </c>
+      <c r="H71">
+        <v>-0.006922821508659156</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="B72">
-        <v>-0.1425809900523329</v>
+        <v>0.1447665727966742</v>
       </c>
       <c r="C72">
-        <v>0.05819051346231684</v>
+        <v>-0.0321608923976788</v>
       </c>
       <c r="D72">
-        <v>0.0004672531146983715</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>-0.001260593195877057</v>
+      </c>
+      <c r="E72">
+        <v>-0.07193568639923666</v>
+      </c>
+      <c r="F72">
+        <v>0.1624815284729123</v>
+      </c>
+      <c r="G72">
+        <v>-0.1167084464844357</v>
+      </c>
+      <c r="H72">
+        <v>0.02240371203795754</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="B73">
-        <v>-0.2881486409113945</v>
+        <v>0.2874494069425718</v>
       </c>
       <c r="C73">
-        <v>0.09104144439925671</v>
+        <v>-0.02434488670189369</v>
       </c>
       <c r="D73">
-        <v>0.04261118677351044</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.1019850495763626</v>
+      </c>
+      <c r="E73">
+        <v>-0.2316924363557674</v>
+      </c>
+      <c r="F73">
+        <v>-0.0803903918368927</v>
+      </c>
+      <c r="G73">
+        <v>0.1986918377545183</v>
+      </c>
+      <c r="H73">
+        <v>0.4768090824780907</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="B74">
-        <v>-0.08332405472271331</v>
+        <v>0.09123749401095058</v>
       </c>
       <c r="C74">
-        <v>0.07499303391314797</v>
+        <v>-0.05583315358132479</v>
       </c>
       <c r="D74">
-        <v>0.009372213658756651</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.03786627152892863</v>
+      </c>
+      <c r="E74">
+        <v>-0.00369491115250635</v>
+      </c>
+      <c r="F74">
+        <v>0.003746604311086966</v>
+      </c>
+      <c r="G74">
+        <v>0.04230116009228035</v>
+      </c>
+      <c r="H74">
+        <v>-0.1267773848721979</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="B75">
-        <v>-0.09859912748443149</v>
+        <v>0.1026903663496263</v>
       </c>
       <c r="C75">
-        <v>0.04767993710769738</v>
+        <v>-0.0239711137941909</v>
       </c>
       <c r="D75">
-        <v>0.01260868238023888</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02458470987100866</v>
+      </c>
+      <c r="E75">
+        <v>0.0003858579424661458</v>
+      </c>
+      <c r="F75">
+        <v>-0.007451450326224906</v>
+      </c>
+      <c r="G75">
+        <v>0.02086305207949549</v>
+      </c>
+      <c r="H75">
+        <v>-0.1213401619757238</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="B76">
-        <v>-0.1342699342920268</v>
+        <v>0.1432514170362037</v>
       </c>
       <c r="C76">
-        <v>0.07732115850966424</v>
+        <v>-0.05232837662528877</v>
       </c>
       <c r="D76">
-        <v>0.03232124699461259</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
+        <v>-0.04918427795295525</v>
+      </c>
+      <c r="E76">
+        <v>0.01597171439355046</v>
+      </c>
+      <c r="F76">
+        <v>-0.03534204254878276</v>
+      </c>
+      <c r="G76">
+        <v>0.009889189849720797</v>
+      </c>
+      <c r="H76">
+        <v>-0.220752737211691</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="B77">
-        <v>-0.1175050332147736</v>
+        <v>0.1047115457004076</v>
       </c>
       <c r="C77">
-        <v>0.009302954304321346</v>
+        <v>0.02042610185258735</v>
       </c>
       <c r="D77">
-        <v>0.08367561359058083</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.03558515282926058</v>
+      </c>
+      <c r="E77">
+        <v>0.03173912425762936</v>
+      </c>
+      <c r="F77">
+        <v>-0.09158124430648401</v>
+      </c>
+      <c r="G77">
+        <v>-0.8658987643972741</v>
+      </c>
+      <c r="H77">
+        <v>0.1671571670312818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
       <c r="B78">
-        <v>-0.1075905940309028</v>
+        <v>0.1498666489203671</v>
       </c>
       <c r="C78">
-        <v>0.03451491147522635</v>
+        <v>-0.02966519153919002</v>
       </c>
       <c r="D78">
-        <v>0.09215084159909313</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.07911625961333817</v>
+      </c>
+      <c r="E78">
+        <v>0.04758106419113273</v>
+      </c>
+      <c r="F78">
+        <v>-0.06718513577815638</v>
+      </c>
+      <c r="G78">
+        <v>-0.08062307389149065</v>
+      </c>
+      <c r="H78">
+        <v>0.04510854441819228</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B79">
-        <v>-0.1484743014033403</v>
+        <v>0.1495279021413644</v>
       </c>
       <c r="C79">
-        <v>0.06599538630481662</v>
+        <v>-0.03440505569759429</v>
       </c>
       <c r="D79">
-        <v>0.02158119323431378</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.03598766447611421</v>
+      </c>
+      <c r="E79">
+        <v>-0.01860508854571186</v>
+      </c>
+      <c r="F79">
+        <v>-0.01498294609488612</v>
+      </c>
+      <c r="G79">
+        <v>0.02235954602683967</v>
+      </c>
+      <c r="H79">
+        <v>-0.1670470545680326</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="B80">
-        <v>-0.04100971333768026</v>
+        <v>0.04165824140069826</v>
       </c>
       <c r="C80">
-        <v>0.01880286084942953</v>
+        <v>-0.01179682261854097</v>
       </c>
       <c r="D80">
-        <v>0.03028318021724891</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.01691945085564021</v>
+      </c>
+      <c r="E80">
+        <v>-0.03039271655539364</v>
+      </c>
+      <c r="F80">
+        <v>-0.003488367148504149</v>
+      </c>
+      <c r="G80">
+        <v>0.0228133355379965</v>
+      </c>
+      <c r="H80">
+        <v>-0.03600798109347148</v>
+      </c>
+    </row>
+    <row r="81" spans="1:8">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="B81">
-        <v>-0.119605441685293</v>
+        <v>0.1209919238317969</v>
       </c>
       <c r="C81">
-        <v>0.05741319690742097</v>
+        <v>-0.03222936547923919</v>
       </c>
       <c r="D81">
-        <v>0.03224535264356297</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.03069663309342769</v>
+      </c>
+      <c r="E81">
+        <v>0.006771275763777861</v>
+      </c>
+      <c r="F81">
+        <v>-0.01126446197752558</v>
+      </c>
+      <c r="G81">
+        <v>0.04776231671571183</v>
+      </c>
+      <c r="H81">
+        <v>-0.1673044618791565</v>
+      </c>
+    </row>
+    <row r="82" spans="1:8">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="B82">
-        <v>-0.1320820089254003</v>
+        <v>0.1312830467576609</v>
       </c>
       <c r="C82">
-        <v>0.07083517911086668</v>
+        <v>-0.04504283239669785</v>
       </c>
       <c r="D82">
-        <v>0.01171028054608132</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.03383698303466946</v>
+      </c>
+      <c r="E82">
+        <v>-0.02268810812666077</v>
+      </c>
+      <c r="F82">
+        <v>-0.04381386955894914</v>
+      </c>
+      <c r="G82">
+        <v>0.03524424065554527</v>
+      </c>
+      <c r="H82">
+        <v>-0.2237346317907898</v>
+      </c>
+    </row>
+    <row r="83" spans="1:8">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="B83">
-        <v>-0.06958203888716145</v>
+        <v>0.08292602075459302</v>
       </c>
       <c r="C83">
-        <v>-0.02449786486254642</v>
+        <v>0.03585349286259572</v>
       </c>
       <c r="D83">
-        <v>0.01445469007327454</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.02238707089155495</v>
+      </c>
+      <c r="E83">
+        <v>0.02012209750690127</v>
+      </c>
+      <c r="F83">
+        <v>-0.04734399966788654</v>
+      </c>
+      <c r="G83">
+        <v>0.05832172488674355</v>
+      </c>
+      <c r="H83">
+        <v>0.04289350229852494</v>
+      </c>
+    </row>
+    <row r="84" spans="1:8">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="B84">
-        <v>-0.02898489189709633</v>
+        <v>0.03838941613152379</v>
       </c>
       <c r="C84">
-        <v>0.02768213815792053</v>
+        <v>-0.02202633471570326</v>
       </c>
       <c r="D84">
-        <v>0.03376761596931792</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.03220480807386584</v>
+      </c>
+      <c r="E84">
+        <v>0.0299127376317694</v>
+      </c>
+      <c r="F84">
+        <v>0.04647735204335376</v>
+      </c>
+      <c r="G84">
+        <v>0.05630392805700935</v>
+      </c>
+      <c r="H84">
+        <v>-0.006281420497376862</v>
+      </c>
+    </row>
+    <row r="85" spans="1:8">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="B85">
-        <v>-0.1158977189565442</v>
+        <v>0.1200636171599638</v>
       </c>
       <c r="C85">
-        <v>0.039928801130175</v>
+        <v>-0.01709188283339489</v>
       </c>
       <c r="D85">
-        <v>0.04591799692238346</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.03848670063980382</v>
+      </c>
+      <c r="E85">
+        <v>0.01687223377612918</v>
+      </c>
+      <c r="F85">
+        <v>-0.03038649276470413</v>
+      </c>
+      <c r="G85">
+        <v>0.02201851064850657</v>
+      </c>
+      <c r="H85">
+        <v>-0.1585948117417436</v>
+      </c>
+    </row>
+    <row r="86" spans="1:8">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="B86">
-        <v>-0.05263778328829406</v>
+        <v>0.0561684223824818</v>
       </c>
       <c r="C86">
-        <v>0.01992318627570279</v>
+        <v>-0.007947731076325692</v>
       </c>
       <c r="D86">
-        <v>0.05952169573001399</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.03557782319454702</v>
+      </c>
+      <c r="E86">
+        <v>0.04423769398952582</v>
+      </c>
+      <c r="F86">
+        <v>-0.03572895155874627</v>
+      </c>
+      <c r="G86">
+        <v>0.03142931849529461</v>
+      </c>
+      <c r="H86">
+        <v>0.01958591957631099</v>
+      </c>
+    </row>
+    <row r="87" spans="1:8">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B87">
-        <v>-0.1222653093642341</v>
+        <v>0.1256528763243729</v>
       </c>
       <c r="C87">
-        <v>0.06465518906385177</v>
+        <v>-0.03159510692966036</v>
       </c>
       <c r="D87">
-        <v>0.06927424348859493</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.06578411054287088</v>
+      </c>
+      <c r="E87">
+        <v>0.01589816856931496</v>
+      </c>
+      <c r="F87">
+        <v>-0.0167565912693075</v>
+      </c>
+      <c r="G87">
+        <v>-0.1189568143662446</v>
+      </c>
+      <c r="H87">
+        <v>0.05374167337245853</v>
+      </c>
+    </row>
+    <row r="88" spans="1:8">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="B88">
-        <v>-0.05346032071051898</v>
+        <v>0.06196221232221328</v>
       </c>
       <c r="C88">
-        <v>0.02804171891382062</v>
+        <v>-0.01773104874456589</v>
       </c>
       <c r="D88">
-        <v>0.02605693791563559</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.03717829090931465</v>
+      </c>
+      <c r="E88">
+        <v>0.01457888152604133</v>
+      </c>
+      <c r="F88">
+        <v>-0.01216188922901159</v>
+      </c>
+      <c r="G88">
+        <v>-0.01084107386788124</v>
+      </c>
+      <c r="H88">
+        <v>-0.04685114128068278</v>
+      </c>
+    </row>
+    <row r="89" spans="1:8">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="B89">
-        <v>-0.09080864079869684</v>
+        <v>0.1053020608695162</v>
       </c>
       <c r="C89">
-        <v>0.07160653399079554</v>
+        <v>-0.1093635270378572</v>
       </c>
       <c r="D89">
-        <v>-0.3325580602930768</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.340645884705009</v>
+      </c>
+      <c r="E89">
+        <v>0.07494863111429553</v>
+      </c>
+      <c r="F89">
+        <v>-0.06716975457701767</v>
+      </c>
+      <c r="G89">
+        <v>0.02685925217403909</v>
+      </c>
+      <c r="H89">
+        <v>-0.007730775327518024</v>
+      </c>
+    </row>
+    <row r="90" spans="1:8">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B90">
-        <v>-0.0747731826061655</v>
+        <v>0.08481920396019398</v>
       </c>
       <c r="C90">
-        <v>0.06144914686433484</v>
+        <v>-0.09189924797285839</v>
       </c>
       <c r="D90">
-        <v>-0.2828395498631667</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2824107262828446</v>
+      </c>
+      <c r="E90">
+        <v>0.05444445900530757</v>
+      </c>
+      <c r="F90">
+        <v>-0.03237023660098765</v>
+      </c>
+      <c r="G90">
+        <v>-0.02743601488627215</v>
+      </c>
+      <c r="H90">
+        <v>0.0109218727830947</v>
+      </c>
+    </row>
+    <row r="91" spans="1:8">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B91">
-        <v>-0.08863087416538599</v>
+        <v>0.09107495702546187</v>
       </c>
       <c r="C91">
-        <v>0.04926166531124665</v>
+        <v>-0.02796978254478603</v>
       </c>
       <c r="D91">
-        <v>0.02234039859210939</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>-0.03170915458061192</v>
+      </c>
+      <c r="E91">
+        <v>0.007520264983032283</v>
+      </c>
+      <c r="F91">
+        <v>-0.0005646639503098475</v>
+      </c>
+      <c r="G91">
+        <v>0.036274077801782</v>
+      </c>
+      <c r="H91">
+        <v>-0.09697953331453908</v>
+      </c>
+    </row>
+    <row r="92" spans="1:8">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B92">
-        <v>-0.07671883025307831</v>
+        <v>0.08738152103084366</v>
       </c>
       <c r="C92">
-        <v>0.07440118713908116</v>
+        <v>-0.1123415406165297</v>
       </c>
       <c r="D92">
-        <v>-0.3412082289611945</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.337605295294673</v>
+      </c>
+      <c r="E92">
+        <v>0.04938756277684362</v>
+      </c>
+      <c r="F92">
+        <v>-0.03544160245557236</v>
+      </c>
+      <c r="G92">
+        <v>-0.006866246946442917</v>
+      </c>
+      <c r="H92">
+        <v>-0.01795446439498241</v>
+      </c>
+    </row>
+    <row r="93" spans="1:8">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="B93">
-        <v>-0.06746154763834686</v>
+        <v>0.0814583195458865</v>
       </c>
       <c r="C93">
-        <v>0.06619440269583934</v>
+        <v>-0.1034236498991516</v>
       </c>
       <c r="D93">
-        <v>-0.2986574273384464</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2979055033799313</v>
+      </c>
+      <c r="E93">
+        <v>0.02707482110012274</v>
+      </c>
+      <c r="F93">
+        <v>-0.02809638011591408</v>
+      </c>
+      <c r="G93">
+        <v>-0.01597629559611002</v>
+      </c>
+      <c r="H93">
+        <v>0.01248866509912163</v>
+      </c>
+    </row>
+    <row r="94" spans="1:8">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="B94">
-        <v>-0.1341334851785173</v>
+        <v>0.129070683786056</v>
       </c>
       <c r="C94">
-        <v>0.04252829728786415</v>
+        <v>-0.01045757308278209</v>
       </c>
       <c r="D94">
-        <v>0.0411823574670299</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.04910901700684166</v>
+      </c>
+      <c r="E94">
+        <v>-0.0159366909782277</v>
+      </c>
+      <c r="F94">
+        <v>-0.01674796129507018</v>
+      </c>
+      <c r="G94">
+        <v>0.05773809531172781</v>
+      </c>
+      <c r="H94">
+        <v>-0.1188915149716892</v>
+      </c>
+    </row>
+    <row r="95" spans="1:8">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="B95">
-        <v>-0.1224366784454895</v>
+        <v>0.1290061642759482</v>
       </c>
       <c r="C95">
-        <v>0.02164009755602405</v>
+        <v>0.004645012346220086</v>
       </c>
       <c r="D95">
-        <v>0.0520788970179777</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.06077110000428394</v>
+      </c>
+      <c r="E95">
+        <v>0.004406564496037654</v>
+      </c>
+      <c r="F95">
+        <v>-0.04783273599136986</v>
+      </c>
+      <c r="G95">
+        <v>-0.05371881669979327</v>
+      </c>
+      <c r="H95">
+        <v>0.06493583137292093</v>
+      </c>
+    </row>
+    <row r="96" spans="1:8">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2035,52 +3187,100 @@
       <c r="D96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:4">
+      <c r="E96">
+        <v>0</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:8">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B97">
-        <v>-0.2161145436997646</v>
+        <v>0.1987917279083001</v>
       </c>
       <c r="C97">
-        <v>0.04033541784394948</v>
+        <v>0.00245834786940296</v>
       </c>
       <c r="D97">
-        <v>-0.09614472791922056</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.07053142604707727</v>
+      </c>
+      <c r="E97">
+        <v>-0.1398980331157867</v>
+      </c>
+      <c r="F97">
+        <v>0.9206065727048435</v>
+      </c>
+      <c r="G97">
+        <v>-0.07432740649640404</v>
+      </c>
+      <c r="H97">
+        <v>0.01120126669644547</v>
+      </c>
+    </row>
+    <row r="98" spans="1:8">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="B98">
-        <v>-0.2450345942948272</v>
+        <v>0.2745250503302175</v>
       </c>
       <c r="C98">
-        <v>0.05470475258800481</v>
+        <v>-0.01725984780940665</v>
       </c>
       <c r="D98">
-        <v>0.02552166171823643</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.05156050844799881</v>
+      </c>
+      <c r="E98">
+        <v>-0.1910285695425867</v>
+      </c>
+      <c r="F98">
+        <v>-0.05574866931978917</v>
+      </c>
+      <c r="G98">
+        <v>0.2636164358552502</v>
+      </c>
+      <c r="H98">
+        <v>0.1945852773114523</v>
+      </c>
+    </row>
+    <row r="99" spans="1:8">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="B99">
-        <v>-0.3969125168314167</v>
+        <v>0.2613057792751171</v>
       </c>
       <c r="C99">
-        <v>-0.8996439085390546</v>
+        <v>0.925616021538137</v>
       </c>
       <c r="D99">
-        <v>-0.06131922571223829</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>0.2031923037577925</v>
+      </c>
+      <c r="E99">
+        <v>0.07110687168834016</v>
+      </c>
+      <c r="F99">
+        <v>-0.05973684781903312</v>
+      </c>
+      <c r="G99">
+        <v>0.01425380953108898</v>
+      </c>
+      <c r="H99">
+        <v>-0.07003470241537851</v>
+      </c>
+    </row>
+    <row r="100" spans="1:8">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2091,24 +3291,48 @@
       <c r="D100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:4">
+      <c r="E100">
+        <v>0</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:8">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B101">
-        <v>-0.04316377193806175</v>
+        <v>0.04768826903065253</v>
       </c>
       <c r="C101">
-        <v>0.02891216794035575</v>
+        <v>-0.02381360553993352</v>
       </c>
       <c r="D101">
-        <v>0.009412156440913259</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.01134317022407095</v>
+      </c>
+      <c r="E101">
+        <v>0.06356056284552272</v>
+      </c>
+      <c r="F101">
+        <v>-0.01327151982162933</v>
+      </c>
+      <c r="G101">
+        <v>-0.002290326526480649</v>
+      </c>
+      <c r="H101">
+        <v>-0.07740878247830529</v>
+      </c>
+    </row>
+    <row r="102" spans="1:8">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +3343,22 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+      <c r="G102">
+        <v>0</v>
+      </c>
+      <c r="H102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:8">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +3369,22 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+      <c r="G103">
+        <v>0</v>
+      </c>
+      <c r="H103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:8">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +3393,18 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
         <v>0</v>
       </c>
     </row>
